--- a/dtpu_configurations/only_integer16/30mhz/mxu_6x6/timing.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_6x6/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>17.813058853149414</v>
+        <v>13.379796981811523</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.006022515706717968</v>
+        <v>0.017686963081359863</v>
       </c>
     </row>
   </sheetData>
